--- a/biology/Botanique/Forêt_de_Thuringe/Forêt_de_Thuringe.xlsx
+++ b/biology/Botanique/Forêt_de_Thuringe/Forêt_de_Thuringe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Thuringe</t>
+          <t>Forêt_de_Thuringe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Thuringe (en allemand : Thüringer Wald) est un massif de moyennes montagnes du Land allemand de Thuringe qui s'étend sur environ 70 km de long et 20 km de large entre la vallée de la Werra jusqu'aux monts de Thuringe au sud-est. Son point culminant est le Großer Beerberg avec 983 m d'altitude. Il fait partie intégrante du massif de Thuringe-Franconie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Thuringe</t>
+          <t>Forêt_de_Thuringe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le massif s'étend selon un axe allant du nord-ouest au sud-est de la Werra près d'Eisenach jusqu'à la limite des monts de Thuringe à Gehren et Schleusegrund ; les deux massifs sont souvent considérés de façon unitaire. La crête principale est la ligne de partage des aux séparant les vallées des affluents de la Saale (Gera et Ilm) au nord-est et la Werra (Schleuse et Hörsel) au sud-ouest. Le point culminant de tout le massif se situe au Großer Beerberg (983 m) près de Suhl.
 La Bundesautobahn 71 traverse la chaîne de montagnes par le tunnel du Rennsteig, ouvert en 2003, le plus long tunnel routier en Allemagne avec un longueur de 7 916 m. Parallèlement, la LGV Nuremberg – Erfurt passe sous le massif.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Thuringe</t>
+          <t>Forêt_de_Thuringe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Histoire culturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rennsteig, un chemin suivant ses sommets le long de la crête principale, est maintenant un sentier célèbre qui marque la frontière entre les régions traditionnelles de la Thuringe au nord et de la Franconie au sud. Depuis l'aube des temps modernes, les deux côtés de la montagne étaient sous la domination des Wettin, souverains de Saxe ; néanmoins, les dialectes du moyen allemand oriental (thuringien) et du allemand supérieur (francique oriental), ainsi que les coutumes et costumes traditionnels, sont différents de chaque côté du Rennsteig jusqu'à aujourd'hui.
 La forêt de Thuringe est célèbre pour le château de la Wartbourg, où Martin Luther resta pendant un moment en exil y traduisant la Bible, et ses stations de sports d'hiver dont la plus connue est sans doute Oberhof, le haut-lieu du biathlon allemand.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Thuringe</t>
+          <t>Forêt_de_Thuringe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Réserve de biosphère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La réserve de biosphère de l'UNESCO s'étend sur une superficie totale de 17 081 ha.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Thuringe</t>
+          <t>Forêt_de_Thuringe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>La forêt de Thuringe au cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les forêts de montagne se sont faites une renommée en tant que coulisse pour les films et séries télévisées, dont :
 1950 : Cœur de pierre (Das kalte Herz)
